--- a/TUMU.xlsx
+++ b/TUMU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J246"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>SUM(MIKTAR)</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Dosya_Adi</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -515,6 +520,11 @@
       <c r="J2" t="n">
         <v>20</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -551,6 +561,11 @@
       <c r="J3" t="n">
         <v>2348</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -587,6 +602,11 @@
       <c r="J4" t="n">
         <v>21</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -623,6 +643,11 @@
       <c r="J5" t="n">
         <v>165</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -659,6 +684,11 @@
       <c r="J6" t="n">
         <v>125</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -695,6 +725,11 @@
       <c r="J7" t="n">
         <v>6511</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -730,6 +765,11 @@
       </c>
       <c r="J8" t="n">
         <v>23</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -763,6 +803,11 @@
       <c r="J9" t="n">
         <v>400</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -799,6 +844,11 @@
       <c r="J10" t="n">
         <v>1008</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -835,6 +885,11 @@
       <c r="J11" t="n">
         <v>85</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -871,6 +926,11 @@
       <c r="J12" t="n">
         <v>406</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -907,6 +967,11 @@
       <c r="J13" t="n">
         <v>211</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,6 +1007,11 @@
       </c>
       <c r="J14" t="n">
         <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -975,6 +1045,11 @@
       <c r="J15" t="n">
         <v>143</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1007,6 +1082,11 @@
       <c r="J16" t="n">
         <v>200</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1043,6 +1123,11 @@
       <c r="J17" t="n">
         <v>11</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1079,6 +1164,11 @@
       <c r="J18" t="n">
         <v>10</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1115,6 +1205,11 @@
       <c r="J19" t="n">
         <v>7822</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1151,6 +1246,11 @@
       <c r="J20" t="n">
         <v>7555</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1187,6 +1287,11 @@
       <c r="J21" t="n">
         <v>5</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1223,6 +1328,11 @@
       <c r="J22" t="n">
         <v>567</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1259,6 +1369,11 @@
       <c r="J23" t="n">
         <v>73</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1295,6 +1410,11 @@
       <c r="J24" t="n">
         <v>1156</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1331,6 +1451,11 @@
       <c r="J25" t="n">
         <v>165</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1367,6 +1492,11 @@
       <c r="J26" t="n">
         <v>703</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1403,6 +1533,11 @@
       <c r="J27" t="n">
         <v>15</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1438,6 +1573,11 @@
       </c>
       <c r="J28" t="n">
         <v>85</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1471,6 +1611,11 @@
       <c r="J29" t="n">
         <v>288</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1507,6 +1652,11 @@
       <c r="J30" t="n">
         <v>4</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1543,6 +1693,11 @@
       <c r="J31" t="n">
         <v>208</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1579,6 +1734,11 @@
       <c r="J32" t="n">
         <v>390</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1614,6 +1774,11 @@
       </c>
       <c r="J33" t="n">
         <v>186</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1647,6 +1812,11 @@
       <c r="J34" t="n">
         <v>65</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1683,6 +1853,11 @@
       <c r="J35" t="n">
         <v>4</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1719,6 +1894,11 @@
       <c r="J36" t="n">
         <v>180</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1755,6 +1935,11 @@
       <c r="J37" t="n">
         <v>350</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1791,6 +1976,11 @@
       <c r="J38" t="n">
         <v>15</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1827,6 +2017,11 @@
       <c r="J39" t="n">
         <v>5</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,6 +2057,11 @@
       </c>
       <c r="J40" t="n">
         <v>9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1895,6 +2095,11 @@
       <c r="J41" t="n">
         <v>29</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1930,6 +2135,11 @@
       </c>
       <c r="J42" t="n">
         <v>14</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1963,6 +2173,11 @@
       <c r="J43" t="n">
         <v>16</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1999,6 +2214,11 @@
       <c r="J44" t="n">
         <v>5</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2035,6 +2255,11 @@
       <c r="J45" t="n">
         <v>77</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2071,6 +2296,11 @@
       <c r="J46" t="n">
         <v>2</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2107,6 +2337,11 @@
       <c r="J47" t="n">
         <v>945</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2143,6 +2378,11 @@
       <c r="J48" t="n">
         <v>53</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2179,6 +2419,11 @@
       <c r="J49" t="n">
         <v>624</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2215,6 +2460,11 @@
       <c r="J50" t="n">
         <v>240</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2251,6 +2501,11 @@
       <c r="J51" t="n">
         <v>77</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2287,6 +2542,11 @@
       <c r="J52" t="n">
         <v>163</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2323,6 +2583,11 @@
       <c r="J53" t="n">
         <v>375</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2359,6 +2624,11 @@
       <c r="J54" t="n">
         <v>5</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2395,6 +2665,11 @@
       <c r="J55" t="n">
         <v>38</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2018.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2431,6 +2706,11 @@
       <c r="J56" t="n">
         <v>1234</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2467,6 +2747,11 @@
       <c r="J57" t="n">
         <v>27</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2503,6 +2788,11 @@
       <c r="J58" t="n">
         <v>185</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2539,6 +2829,11 @@
       <c r="J59" t="n">
         <v>4403</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2575,6 +2870,11 @@
       <c r="J60" t="n">
         <v>25</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2611,6 +2911,11 @@
       <c r="J61" t="n">
         <v>1359</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2647,6 +2952,11 @@
       <c r="J62" t="n">
         <v>1132</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2682,6 +2992,11 @@
       </c>
       <c r="J63" t="n">
         <v>66</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2715,6 +3030,11 @@
       <c r="J64" t="n">
         <v>16</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2751,6 +3071,11 @@
       <c r="J65" t="n">
         <v>5445</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2787,6 +3112,11 @@
       <c r="J66" t="n">
         <v>3774</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2823,6 +3153,11 @@
       <c r="J67" t="n">
         <v>480</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2859,6 +3194,11 @@
       <c r="J68" t="n">
         <v>1151</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2895,6 +3235,11 @@
       <c r="J69" t="n">
         <v>17</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2931,6 +3276,11 @@
       <c r="J70" t="n">
         <v>37</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2967,6 +3317,11 @@
       <c r="J71" t="n">
         <v>574</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3002,6 +3357,11 @@
       </c>
       <c r="J72" t="n">
         <v>93</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3035,6 +3395,11 @@
       <c r="J73" t="n">
         <v>389</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3071,6 +3436,11 @@
       <c r="J74" t="n">
         <v>223</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3107,6 +3477,11 @@
       <c r="J75" t="n">
         <v>282</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3143,6 +3518,11 @@
       <c r="J76" t="n">
         <v>20</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3179,6 +3559,11 @@
       <c r="J77" t="n">
         <v>114</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,6 +3599,11 @@
       </c>
       <c r="J78" t="n">
         <v>84</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3247,6 +3637,11 @@
       <c r="J79" t="n">
         <v>2</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3283,6 +3678,11 @@
       <c r="J80" t="n">
         <v>4</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3319,6 +3719,11 @@
       <c r="J81" t="n">
         <v>10</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3355,6 +3760,11 @@
       <c r="J82" t="n">
         <v>198</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,6 +3800,11 @@
       </c>
       <c r="J83" t="n">
         <v>131</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3423,6 +3838,11 @@
       <c r="J84" t="n">
         <v>64</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3459,6 +3879,11 @@
       <c r="J85" t="n">
         <v>3</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3495,6 +3920,11 @@
       <c r="J86" t="n">
         <v>1910</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3531,6 +3961,11 @@
       <c r="J87" t="n">
         <v>115</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3567,6 +4002,11 @@
       <c r="J88" t="n">
         <v>805</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3603,6 +4043,11 @@
       <c r="J89" t="n">
         <v>1179</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3639,6 +4084,11 @@
       <c r="J90" t="n">
         <v>890</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3675,6 +4125,11 @@
       <c r="J91" t="n">
         <v>366</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3711,6 +4166,11 @@
       <c r="J92" t="n">
         <v>23</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3747,6 +4207,11 @@
       <c r="J93" t="n">
         <v>3</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3783,6 +4248,11 @@
       <c r="J94" t="n">
         <v>20</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2019.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3819,6 +4289,11 @@
       <c r="J95" t="n">
         <v>860</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3855,6 +4330,11 @@
       <c r="J96" t="n">
         <v>100</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3891,6 +4371,11 @@
       <c r="J97" t="n">
         <v>74</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3926,6 +4411,11 @@
       </c>
       <c r="J98" t="n">
         <v>2211</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -3959,6 +4449,11 @@
       <c r="J99" t="n">
         <v>233</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3995,6 +4490,11 @@
       <c r="J100" t="n">
         <v>85</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4031,6 +4531,11 @@
       <c r="J101" t="n">
         <v>608</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4067,6 +4572,11 @@
       <c r="J102" t="n">
         <v>1148</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4102,6 +4612,11 @@
       </c>
       <c r="J103" t="n">
         <v>25</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4135,6 +4650,11 @@
       <c r="J104" t="n">
         <v>5</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4171,6 +4691,11 @@
       <c r="J105" t="n">
         <v>2633</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4207,6 +4732,11 @@
       <c r="J106" t="n">
         <v>3074</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4243,6 +4773,11 @@
       <c r="J107" t="n">
         <v>471</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4279,6 +4814,11 @@
       <c r="J108" t="n">
         <v>638</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4315,6 +4855,11 @@
       <c r="J109" t="n">
         <v>981</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4351,6 +4896,11 @@
       <c r="J110" t="n">
         <v>48</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4386,6 +4936,11 @@
       </c>
       <c r="J111" t="n">
         <v>19</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -4419,6 +4974,11 @@
       <c r="J112" t="n">
         <v>516</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4455,6 +5015,11 @@
       <c r="J113" t="n">
         <v>133</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4491,6 +5056,11 @@
       <c r="J114" t="n">
         <v>23</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,6 +5096,11 @@
       </c>
       <c r="J115" t="n">
         <v>20</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -4559,6 +5134,11 @@
       <c r="J116" t="n">
         <v>37</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4595,6 +5175,11 @@
       <c r="J117" t="n">
         <v>72</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4631,6 +5216,11 @@
       <c r="J118" t="n">
         <v>17</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4667,6 +5257,11 @@
       <c r="J119" t="n">
         <v>10</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4702,6 +5297,11 @@
       </c>
       <c r="J120" t="n">
         <v>262</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -4735,6 +5335,11 @@
       <c r="J121" t="n">
         <v>316</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4771,6 +5376,11 @@
       <c r="J122" t="n">
         <v>20</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4807,6 +5417,11 @@
       <c r="J123" t="n">
         <v>1165</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4843,6 +5458,11 @@
       <c r="J124" t="n">
         <v>991</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4879,6 +5499,11 @@
       <c r="J125" t="n">
         <v>279</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4915,6 +5540,11 @@
       <c r="J126" t="n">
         <v>39</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4951,6 +5581,11 @@
       <c r="J127" t="n">
         <v>263</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4987,6 +5622,11 @@
       <c r="J128" t="n">
         <v>58</v>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5023,6 +5663,11 @@
       <c r="J129" t="n">
         <v>10</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>2020.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5059,6 +5704,11 @@
       <c r="J130" t="n">
         <v>560</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5095,6 +5745,11 @@
       <c r="J131" t="n">
         <v>5</v>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5131,6 +5786,11 @@
       <c r="J132" t="n">
         <v>110</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5167,6 +5827,11 @@
       <c r="J133" t="n">
         <v>91</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5203,6 +5868,11 @@
       <c r="J134" t="n">
         <v>4</v>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5239,6 +5909,11 @@
       <c r="J135" t="n">
         <v>3</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5275,6 +5950,11 @@
       <c r="J136" t="n">
         <v>5100</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5311,6 +5991,11 @@
       <c r="J137" t="n">
         <v>5</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5347,6 +6032,11 @@
       <c r="J138" t="n">
         <v>1965</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5383,6 +6073,11 @@
       <c r="J139" t="n">
         <v>49</v>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5419,6 +6114,11 @@
       <c r="J140" t="n">
         <v>1537</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5455,6 +6155,11 @@
       <c r="J141" t="n">
         <v>102</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5490,6 +6195,11 @@
       </c>
       <c r="J142" t="n">
         <v>5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -5523,6 +6233,11 @@
       <c r="J143" t="n">
         <v>93</v>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5559,6 +6274,11 @@
       <c r="J144" t="n">
         <v>4950</v>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5595,6 +6315,11 @@
       <c r="J145" t="n">
         <v>6604</v>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5631,6 +6356,11 @@
       <c r="J146" t="n">
         <v>1291</v>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5667,6 +6397,11 @@
       <c r="J147" t="n">
         <v>78</v>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5703,6 +6438,11 @@
       <c r="J148" t="n">
         <v>40</v>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5739,6 +6479,11 @@
       <c r="J149" t="n">
         <v>714</v>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5775,6 +6520,11 @@
       <c r="J150" t="n">
         <v>1777</v>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5811,6 +6561,11 @@
       <c r="J151" t="n">
         <v>33</v>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5847,6 +6602,11 @@
       <c r="J152" t="n">
         <v>124</v>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5883,6 +6643,11 @@
       <c r="J153" t="n">
         <v>140</v>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5919,6 +6684,11 @@
       <c r="J154" t="n">
         <v>171</v>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5955,6 +6725,11 @@
       <c r="J155" t="n">
         <v>297</v>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5991,6 +6766,11 @@
       <c r="J156" t="n">
         <v>92</v>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6027,6 +6807,11 @@
       <c r="J157" t="n">
         <v>24</v>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6063,6 +6848,11 @@
       <c r="J158" t="n">
         <v>46</v>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6099,6 +6889,11 @@
       <c r="J159" t="n">
         <v>5</v>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6135,6 +6930,11 @@
       <c r="J160" t="n">
         <v>14</v>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6171,6 +6971,11 @@
       <c r="J161" t="n">
         <v>1</v>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6207,6 +7012,11 @@
       <c r="J162" t="n">
         <v>1341</v>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6243,6 +7053,11 @@
       <c r="J163" t="n">
         <v>589</v>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6279,6 +7094,11 @@
       <c r="J164" t="n">
         <v>627</v>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6315,6 +7135,11 @@
       <c r="J165" t="n">
         <v>855</v>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6351,6 +7176,11 @@
       <c r="J166" t="n">
         <v>1</v>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6387,6 +7217,11 @@
       <c r="J167" t="n">
         <v>341</v>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6423,6 +7258,11 @@
       <c r="J168" t="n">
         <v>5</v>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6459,6 +7299,11 @@
       <c r="J169" t="n">
         <v>3</v>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6495,6 +7340,11 @@
       <c r="J170" t="n">
         <v>51</v>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2021.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6531,6 +7381,11 @@
       <c r="J171" t="n">
         <v>290</v>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6567,6 +7422,11 @@
       <c r="J172" t="n">
         <v>8</v>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6603,6 +7463,11 @@
       <c r="J173" t="n">
         <v>330</v>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6639,6 +7504,11 @@
       <c r="J174" t="n">
         <v>80</v>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6675,6 +7545,11 @@
       <c r="J175" t="n">
         <v>2</v>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6711,6 +7586,11 @@
       <c r="J176" t="n">
         <v>2</v>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6747,6 +7627,11 @@
       <c r="J177" t="n">
         <v>2524</v>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6783,6 +7668,11 @@
       <c r="J178" t="n">
         <v>11</v>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6819,6 +7709,11 @@
       <c r="J179" t="n">
         <v>1110</v>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6855,6 +7750,11 @@
       <c r="J180" t="n">
         <v>147</v>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6891,6 +7791,11 @@
       <c r="J181" t="n">
         <v>1454</v>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6926,6 +7831,11 @@
       </c>
       <c r="J182" t="n">
         <v>44</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -6959,6 +7869,11 @@
       <c r="J183" t="n">
         <v>15</v>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6995,6 +7910,11 @@
       <c r="J184" t="n">
         <v>4589</v>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7031,6 +7951,11 @@
       <c r="J185" t="n">
         <v>3581</v>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7067,6 +7992,11 @@
       <c r="J186" t="n">
         <v>1921</v>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7103,6 +8033,11 @@
       <c r="J187" t="n">
         <v>153</v>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7139,6 +8074,11 @@
       <c r="J188" t="n">
         <v>542</v>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7175,6 +8115,11 @@
       <c r="J189" t="n">
         <v>47</v>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7211,6 +8156,11 @@
       <c r="J190" t="n">
         <v>772</v>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7246,6 +8196,11 @@
       </c>
       <c r="J191" t="n">
         <v>35</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -7279,6 +8234,11 @@
       <c r="J192" t="n">
         <v>370</v>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7315,6 +8275,11 @@
       <c r="J193" t="n">
         <v>123</v>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7351,6 +8316,11 @@
       <c r="J194" t="n">
         <v>271</v>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7387,6 +8357,11 @@
       <c r="J195" t="n">
         <v>87</v>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7423,6 +8398,11 @@
       <c r="J196" t="n">
         <v>159</v>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7459,6 +8439,11 @@
       <c r="J197" t="n">
         <v>56</v>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7495,6 +8480,11 @@
       <c r="J198" t="n">
         <v>60</v>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7530,6 +8520,11 @@
       </c>
       <c r="J199" t="n">
         <v>154</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -7563,6 +8558,11 @@
       <c r="J200" t="n">
         <v>59</v>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7599,6 +8599,11 @@
       <c r="J201" t="n">
         <v>5</v>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7635,6 +8640,11 @@
       <c r="J202" t="n">
         <v>36</v>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7671,6 +8681,11 @@
       <c r="J203" t="n">
         <v>2</v>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7707,6 +8722,11 @@
       <c r="J204" t="n">
         <v>334</v>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7743,6 +8763,11 @@
       <c r="J205" t="n">
         <v>75</v>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7779,6 +8804,11 @@
       <c r="J206" t="n">
         <v>44</v>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7815,6 +8845,11 @@
       <c r="J207" t="n">
         <v>1306</v>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7851,6 +8886,11 @@
       <c r="J208" t="n">
         <v>951</v>
       </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7887,6 +8927,11 @@
       <c r="J209" t="n">
         <v>8</v>
       </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7923,6 +8968,11 @@
       <c r="J210" t="n">
         <v>28</v>
       </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7959,6 +9009,11 @@
       <c r="J211" t="n">
         <v>50</v>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7995,6 +9050,11 @@
       <c r="J212" t="n">
         <v>719</v>
       </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>2022.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8031,6 +9091,11 @@
       <c r="J213" t="n">
         <v>60</v>
       </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8067,6 +9132,11 @@
       <c r="J214" t="n">
         <v>4</v>
       </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8103,6 +9173,11 @@
       <c r="J215" t="n">
         <v>135</v>
       </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8139,6 +9214,11 @@
       <c r="J216" t="n">
         <v>1</v>
       </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8175,6 +9255,11 @@
       <c r="J217" t="n">
         <v>1453</v>
       </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8211,6 +9296,11 @@
       <c r="J218" t="n">
         <v>597</v>
       </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8247,6 +9337,11 @@
       <c r="J219" t="n">
         <v>55</v>
       </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8283,6 +9378,11 @@
       <c r="J220" t="n">
         <v>51</v>
       </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8319,6 +9419,11 @@
       <c r="J221" t="n">
         <v>615</v>
       </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8355,6 +9460,11 @@
       <c r="J222" t="n">
         <v>2920</v>
       </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8391,6 +9501,11 @@
       <c r="J223" t="n">
         <v>1930</v>
       </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8427,6 +9542,11 @@
       <c r="J224" t="n">
         <v>48</v>
       </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8463,6 +9583,11 @@
       <c r="J225" t="n">
         <v>572</v>
       </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8499,6 +9624,11 @@
       <c r="J226" t="n">
         <v>35</v>
       </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8535,6 +9665,11 @@
       <c r="J227" t="n">
         <v>44</v>
       </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8571,6 +9706,11 @@
       <c r="J228" t="n">
         <v>37</v>
       </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8607,6 +9747,11 @@
       <c r="J229" t="n">
         <v>685</v>
       </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8643,6 +9788,11 @@
       <c r="J230" t="n">
         <v>100</v>
       </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8679,6 +9829,11 @@
       <c r="J231" t="n">
         <v>62</v>
       </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8715,6 +9870,11 @@
       <c r="J232" t="n">
         <v>279</v>
       </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8751,6 +9911,11 @@
       <c r="J233" t="n">
         <v>446</v>
       </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8787,6 +9952,11 @@
       <c r="J234" t="n">
         <v>74</v>
       </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8823,6 +9993,11 @@
       <c r="J235" t="n">
         <v>19</v>
       </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8859,6 +10034,11 @@
       <c r="J236" t="n">
         <v>21</v>
       </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8895,6 +10075,11 @@
       <c r="J237" t="n">
         <v>37</v>
       </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8931,6 +10116,11 @@
       <c r="J238" t="n">
         <v>1</v>
       </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8967,6 +10157,11 @@
       <c r="J239" t="n">
         <v>476</v>
       </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9003,6 +10198,11 @@
       <c r="J240" t="n">
         <v>7</v>
       </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9039,6 +10239,11 @@
       <c r="J241" t="n">
         <v>643</v>
       </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9075,6 +10280,11 @@
       <c r="J242" t="n">
         <v>56</v>
       </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9111,6 +10321,11 @@
       <c r="J243" t="n">
         <v>180</v>
       </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9147,6 +10362,11 @@
       <c r="J244" t="n">
         <v>135</v>
       </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9183,6 +10403,11 @@
       <c r="J245" t="n">
         <v>37</v>
       </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9218,6 +10443,11 @@
       </c>
       <c r="J246" t="n">
         <v>2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>2023.xlsx</t>
+        </is>
       </c>
     </row>
   </sheetData>
